--- a/tests/_data/result.xlsx
+++ b/tests/_data/result.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\__tests__\_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\current\image-parsing\tests\_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -258,9 +258,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>*</t>
-  </si>
-  <si>
     <t>df8c9ffe-db95-4ccd-a43e-0646905e4992</t>
   </si>
   <si>
@@ -283,6 +280,9 @@
   </si>
   <si>
     <t>D:/Current/image-parsing/__tests__/_data/images-barcode//10025.tif</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
-      <selection activeCell="BN9" sqref="BN9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -991,125 +991,125 @@
         <v>75</v>
       </c>
       <c r="W2" t="s">
+        <v>87</v>
+      </c>
+      <c r="X2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>75</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>78</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>79</v>
       </c>
-      <c r="X2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>80</v>
-      </c>
       <c r="BK2">
         <v>0</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BR2" t="b">
         <v>0</v>
@@ -1215,7 +1215,7 @@
         <v>75</v>
       </c>
       <c r="W3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="X3" t="s">
         <v>75</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR3" t="b">
         <v>1</v>
@@ -1371,7 +1371,7 @@
         <v>1</v>
       </c>
       <c r="BW3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.25">
@@ -1403,7 +1403,7 @@
         <v>75</v>
       </c>
       <c r="J4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="K4" t="s">
         <v>78</v>
@@ -1439,13 +1439,13 @@
         <v>77</v>
       </c>
       <c r="V4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="W4" t="s">
         <v>77</v>
       </c>
       <c r="X4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="Y4" t="s">
         <v>77</v>
@@ -1484,7 +1484,7 @@
         <v>76</v>
       </c>
       <c r="AK4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AL4" t="s">
         <v>77</v>
@@ -1499,7 +1499,7 @@
         <v>77</v>
       </c>
       <c r="AP4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AQ4" t="s">
         <v>77</v>
@@ -1514,7 +1514,7 @@
         <v>77</v>
       </c>
       <c r="AU4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AV4" t="s">
         <v>78</v>
@@ -1538,7 +1538,7 @@
         <v>75</v>
       </c>
       <c r="BC4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="BD4" t="s">
         <v>78</v>
@@ -1559,7 +1559,7 @@
         <v>0</v>
       </c>
       <c r="BJ4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1580,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="BR4" t="b">
         <v>1</v>
@@ -1598,13 +1598,13 @@
         <v>1</v>
       </c>
       <c r="BW4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BW1 A4:BP4 A2:BP2 BW2 BW3:BW4 BR2 A3:BP3 BR3 BR4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:BW1 A4:I4 A2:V2 BW2 BW3:BW4 BR2 A3:V3 BR3 BR4 K4:U4 X2:BP2 X3:BP3 W4 Y4:AJ4 AL4:AO4 AQ4:AT4 AV4:BB4 BD4:BP4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/tests/_data/result.xlsx
+++ b/tests/_data/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="89">
   <si>
     <t>Q1</t>
   </si>
@@ -283,6 +283,9 @@
   </si>
   <si>
     <t>?</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -687,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
+      <selection activeCell="BC4" sqref="BC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1439,7 +1442,7 @@
         <v>77</v>
       </c>
       <c r="V4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="W4" t="s">
         <v>77</v>
@@ -1538,7 +1541,7 @@
         <v>75</v>
       </c>
       <c r="BC4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="BD4" t="s">
         <v>78</v>

--- a/tests/_data/result.xlsx
+++ b/tests/_data/result.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,9 +225,6 @@
     <t>UNATTEMPTED COUNT</t>
   </si>
   <si>
-    <t>IMAGE FILE</t>
-  </si>
-  <si>
     <t>IS ROLL NO EXTRACTED</t>
   </si>
   <si>
@@ -286,6 +283,9 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t>FILE PATH</t>
   </si>
 </sst>
 </file>
@@ -690,8 +690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <selection activeCell="BC4" sqref="BC4"/>
+    <sheetView tabSelected="1" topLeftCell="BE1" workbookViewId="0">
+      <selection activeCell="BQ1" sqref="BQ1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -905,214 +905,214 @@
         <v>67</v>
       </c>
       <c r="BQ1" t="s">
+        <v>88</v>
+      </c>
+      <c r="BR1" t="s">
         <v>68</v>
       </c>
-      <c r="BR1" t="s">
+      <c r="BS1" t="s">
         <v>69</v>
       </c>
-      <c r="BS1" t="s">
+      <c r="BT1" t="s">
         <v>70</v>
       </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
         <v>71</v>
       </c>
-      <c r="BU1" t="s">
+      <c r="BV1" t="s">
         <v>72</v>
       </c>
-      <c r="BV1" t="s">
+      <c r="BW1" t="s">
         <v>73</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>75</v>
+      </c>
+      <c r="R2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T2" t="s">
+        <v>76</v>
+      </c>
+      <c r="U2" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W2" t="s">
+        <v>86</v>
+      </c>
+      <c r="X2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>75</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BI2">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="s">
         <v>78</v>
       </c>
-      <c r="O2" t="s">
-        <v>77</v>
-      </c>
-      <c r="P2" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R2" t="s">
-        <v>78</v>
-      </c>
-      <c r="S2" t="s">
-        <v>76</v>
-      </c>
-      <c r="T2" t="s">
-        <v>77</v>
-      </c>
-      <c r="U2" t="s">
-        <v>75</v>
-      </c>
-      <c r="V2" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" t="s">
-        <v>87</v>
-      </c>
-      <c r="X2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AO2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>75</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BE2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>78</v>
-      </c>
-      <c r="BG2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BH2" t="s">
-        <v>75</v>
-      </c>
-      <c r="BI2">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="s">
-        <v>79</v>
-      </c>
       <c r="BK2">
         <v>0</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="BR2" t="b">
         <v>0</v>
@@ -1152,190 +1152,190 @@
     </row>
     <row r="3" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="M3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="R3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="T3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="W3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="X3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Z3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AA3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AB3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AG3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AH3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AM3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AN3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AO3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AP3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AQ3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AR3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AS3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AT3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AU3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AV3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AW3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="AX3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AY3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="AZ3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BA3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BB3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BC3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BD3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BE3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BF3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BG3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BH3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BI3">
         <v>0</v>
       </c>
       <c r="BJ3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="BK3">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="BR3" t="b">
         <v>1</v>
@@ -1374,195 +1374,195 @@
         <v>1</v>
       </c>
       <c r="BW3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:75" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" t="s">
+        <v>74</v>
+      </c>
+      <c r="P4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>77</v>
+      </c>
+      <c r="R4" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" t="s">
+        <v>75</v>
+      </c>
+      <c r="T4" t="s">
+        <v>77</v>
+      </c>
+      <c r="U4" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" t="s">
         <v>87</v>
       </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" t="s">
-        <v>75</v>
-      </c>
-      <c r="M4" t="s">
-        <v>78</v>
-      </c>
-      <c r="N4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>75</v>
-      </c>
-      <c r="P4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R4" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" t="s">
-        <v>78</v>
-      </c>
-      <c r="U4" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" t="s">
-        <v>88</v>
-      </c>
       <c r="W4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR4" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>76</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>77</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>74</v>
+      </c>
+      <c r="BC4" t="s">
         <v>87</v>
       </c>
-      <c r="Y4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AK4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AM4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AR4" t="s">
-        <v>76</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>87</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>77</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>78</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>75</v>
-      </c>
-      <c r="BC4" t="s">
-        <v>88</v>
-      </c>
       <c r="BD4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BE4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BF4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BG4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BH4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BI4">
         <v>0</v>
       </c>
       <c r="BJ4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="BK4">
         <v>0</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BR4" t="b">
         <v>1</v>
@@ -1601,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="BW4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:BW1 A4:I4 A2:V2 BW2 BW3:BW4 BR2 A3:V3 BR3 BR4 K4:U4 X2:BP2 X3:BP3 W4 Y4:AJ4 AL4:AO4 AQ4:AT4 AV4:BB4 BD4:BP4" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:BP1 A4:I4 A2:V2 BW2 BW3:BW4 BR2 A3:V3 BR3 BR4 K4:U4 X2:BP2 X3:BP3 W4 Y4:AJ4 AL4:AO4 AQ4:AT4 AV4:BB4 BD4:BP4 BR1:BW1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>